--- a/datas/Hunan_datas.xlsx
+++ b/datas/Hunan_datas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -41,16 +41,28 @@
   <si>
     <t>湘FA6070</t>
   </si>
+  <si>
+    <t>湘G02175</t>
+  </si>
+  <si>
+    <t>湘G02167</t>
+  </si>
+  <si>
+    <t>湘G18065</t>
+  </si>
+  <si>
+    <t>湘G13078</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -67,6 +79,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -75,7 +115,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,122 +191,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,187 +231,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +422,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,17 +494,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,30 +522,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -518,10 +530,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,133 +542,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,13 +1027,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1048,6 +1064,76 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>

--- a/datas/Hunan_datas.xlsx
+++ b/datas/Hunan_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -30,28 +30,43 @@
     <t>carNUM</t>
   </si>
   <si>
+    <t>js001</t>
+  </si>
+  <si>
+    <t>qwe123456</t>
+  </si>
+  <si>
+    <t>https://www.hunanlwlk.com/</t>
+  </si>
+  <si>
+    <t>湘FA6070</t>
+  </si>
+  <si>
     <t>js002</t>
   </si>
   <si>
-    <t>qwe123456</t>
-  </si>
-  <si>
-    <t>https://www.hunanlwlk.com/</t>
-  </si>
-  <si>
-    <t>湘FA6070</t>
-  </si>
-  <si>
     <t>湘G02175</t>
   </si>
   <si>
+    <t>js003</t>
+  </si>
+  <si>
     <t>湘G02167</t>
   </si>
   <si>
+    <t>js004</t>
+  </si>
+  <si>
     <t>湘G18065</t>
   </si>
   <si>
+    <t>js005</t>
+  </si>
+  <si>
     <t>湘G13078</t>
+  </si>
+  <si>
+    <t>js006</t>
   </si>
 </sst>
 </file>
@@ -59,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -79,58 +94,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,52 +184,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -199,24 +230,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,19 +246,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,18 +408,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -279,139 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,17 +440,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,26 +464,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,8 +497,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,15 +537,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -530,10 +545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,141 +557,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,110 +1048,112 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A1" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/datas/Hunan_datas.xlsx
+++ b/datas/Hunan_datas.xlsx
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -94,12 +94,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -108,6 +138,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -115,29 +161,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,87 +193,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,19 +246,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,13 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,84 +414,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,55 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,78 +437,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,6 +457,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -537,6 +504,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -545,10 +545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,133 +557,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>

--- a/datas/Hunan_datas.xlsx
+++ b/datas/Hunan_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>username</t>
   </si>
@@ -27,7 +27,22 @@
     <t>url</t>
   </si>
   <si>
-    <t>carNUM</t>
+    <t>area</t>
+  </si>
+  <si>
+    <t>carnumber</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>btime</t>
+  </si>
+  <si>
+    <t>etime</t>
   </si>
   <si>
     <t>js001</t>
@@ -39,7 +54,16 @@
     <t>https://www.hunanlwlk.com/</t>
   </si>
   <si>
+    <t>常德市</t>
+  </si>
+  <si>
     <t>湘FA6070</t>
+  </si>
+  <si>
+    <t>常德驰鑫运输有限公司</t>
+  </si>
+  <si>
+    <t>宏地道路运输车辆卫星定位系统监控平台</t>
   </si>
   <si>
     <t>js002</t>
@@ -75,11 +99,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,11 +117,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -161,6 +184,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -215,21 +245,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -246,6 +276,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -258,7 +336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,55 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,6 +384,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,67 +426,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,7 +587,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,128 +596,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +725,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,21 +1078,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" ht="14.25" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1072,89 +1109,113 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/datas/Hunan_datas.xlsx
+++ b/datas/Hunan_datas.xlsx
@@ -7,16 +7,19 @@
     <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CarInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="Statistic" sheetId="2" r:id="rId2"/>
+    <sheet name="Assessment" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="109">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>username</t>
   </si>
@@ -27,7 +30,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>area</t>
+    <t>zone</t>
   </si>
   <si>
     <t>carnumber</t>
@@ -45,52 +48,301 @@
     <t>etime</t>
   </si>
   <si>
-    <t>js001</t>
+    <t>cartype1</t>
+  </si>
+  <si>
+    <t>cartype2</t>
+  </si>
+  <si>
+    <t>cartype3</t>
+  </si>
+  <si>
+    <t>cartype4</t>
+  </si>
+  <si>
+    <t>cartype5</t>
+  </si>
+  <si>
+    <t>cartype6</t>
+  </si>
+  <si>
+    <t>deletecheck</t>
+  </si>
+  <si>
+    <t>carstate</t>
+  </si>
+  <si>
+    <t>assessmenttype</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>js002</t>
   </si>
   <si>
     <t>qwe123456</t>
   </si>
   <si>
-    <t>https://www.hunanlwlk.com/</t>
+    <t>http://www.hunanlwlk.com/</t>
   </si>
   <si>
     <t>常德市</t>
   </si>
   <si>
+    <t>湘E98363</t>
+  </si>
+  <si>
+    <t>三类以上班线客车</t>
+  </si>
+  <si>
+    <t>高速客车</t>
+  </si>
+  <si>
+    <t>超长客车</t>
+  </si>
+  <si>
+    <t>旅游客车</t>
+  </si>
+  <si>
+    <t>包车客车</t>
+  </si>
+  <si>
+    <t>危险品运输车</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>全选</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>湘G02175</t>
+  </si>
+  <si>
+    <t>宏地道路运输车辆卫星定位系统监控平台</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>湘G02167</t>
+  </si>
+  <si>
+    <t>常德驰鑫运输有限公司</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>湘G18065</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>湘G13078</t>
+  </si>
+  <si>
+    <t>2019-04-08</t>
+  </si>
+  <si>
+    <t>2019-04-10</t>
+  </si>
+  <si>
+    <t>两客一危</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>湘FA6070</t>
   </si>
   <si>
-    <t>常德驰鑫运输有限公司</t>
-  </si>
-  <si>
-    <t>宏地道路运输车辆卫星定位系统监控平台</t>
-  </si>
-  <si>
-    <t>js002</t>
-  </si>
-  <si>
-    <t>湘G02175</t>
-  </si>
-  <si>
-    <t>js003</t>
-  </si>
-  <si>
-    <t>湘G02167</t>
-  </si>
-  <si>
-    <t>js004</t>
-  </si>
-  <si>
-    <t>湘G18065</t>
-  </si>
-  <si>
-    <t>js005</t>
-  </si>
-  <si>
-    <t>湘G13078</t>
-  </si>
-  <si>
-    <t>js006</t>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>月度考核</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>年度考核</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>当月实时考核</t>
+  </si>
+  <si>
+    <t>cartype</t>
+  </si>
+  <si>
+    <t>testname</t>
+  </si>
+  <si>
+    <t>installtype</t>
+  </si>
+  <si>
+    <t>onlinetype</t>
+  </si>
+  <si>
+    <t>atwork</t>
+  </si>
+  <si>
+    <t>responsetype</t>
+  </si>
+  <si>
+    <t>地区考核月度查询</t>
+  </si>
+  <si>
+    <t>地区考核年度查询</t>
+  </si>
+  <si>
+    <t>地区考核当月实时查询</t>
+  </si>
+  <si>
+    <t>企业考核月度查询</t>
+  </si>
+  <si>
+    <t>湖南省</t>
+  </si>
+  <si>
+    <t>企业考核年度查询</t>
+  </si>
+  <si>
+    <t>企业考核当月实时查询</t>
+  </si>
+  <si>
+    <t>服务商考核月度查询</t>
+  </si>
+  <si>
+    <t>服务商年度查询</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>服务商当月实时查询</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>考核明细-入网明细</t>
+  </si>
+  <si>
+    <t>已入网</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>考核明细-上线明细</t>
+  </si>
+  <si>
+    <t>未上线</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>考核明细-平台连通率</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>考核明细-轨迹完整率</t>
+  </si>
+  <si>
+    <t>2019-04-12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>考核明细-数据合格率</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>考核明细-超速</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>考核明细-疲驾</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>2019-04-18</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>手动</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>考核明细-漂移</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>考核明细-查岗</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>隐患清零-地区-月度</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>隐患清零-地区-年度</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>隐患清零-地区-实时</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>隐患清零-企业-实时</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
 </sst>
 </file>
@@ -103,7 +355,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,10 +369,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11.3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -276,6 +539,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -288,175 +713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,10 +838,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,148 +850,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1078,26 +1353,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="1" customWidth="1"/>
+    <col min="12" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="10.5" style="1" customWidth="1"/>
+    <col min="20" max="32" width="9" style="1"/>
+    <col min="33" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="27" spans="1:19">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1106,10 +1387,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1124,98 +1405,268 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:7">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" ht="27" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1228,14 +1679,93 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1245,14 +1775,1068 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="29.5" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="10.375" customWidth="1"/>
+    <col min="15" max="15" width="14.875" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="7.375" customWidth="1"/>
+    <col min="18" max="18" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="Q12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" ht="28.5" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" ht="28.5" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" ht="28.5" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" ht="27" spans="1:19">
+      <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="R17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="1:19">
+      <c r="A18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="R18" t="s">
+        <v>91</v>
+      </c>
+      <c r="S18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="R19" t="s">
+        <v>91</v>
+      </c>
+      <c r="S19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:15">
+      <c r="A20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:15">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:15">
+      <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" ht="27" spans="1:15">
+      <c r="A23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:15">
+      <c r="A24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E25" r:id="rId1" display="http://www.hunanlwlk.com/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
